--- a/database/sidis/expdata/3042.xlsx
+++ b/database/sidis/expdata/3042.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/files_HEPdata 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Liu/Repos/fitpack/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15F8A9AF-AA16-974F-866F-9DA8C5B88D86}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D795979A-BF1F-8145-8B57-57135C209DAA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="960" windowWidth="27700" windowHeight="15840" xr2:uid="{75F6EC47-F649-7B45-91A7-9DD8CD4A594F}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{A94C1B33-6098-FD45-8897-DB0AF4692DB9}" name="Zgt01_n_z_Col" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Zgt01_n_z_Col" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10008" sourceFile="/Users/user/Downloads/files_HEPdata 2/Zgt01_n_z_Col.txt" consecutive="1">
       <textFields count="10">
         <textField/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sysabs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +128,10 @@
   </si>
   <si>
     <t>compass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysabs_u</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Zgt01_n_z_Col" connectionId="1" xr16:uid="{74F5E0FD-6663-2549-903D-552050E1E229}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Zgt01_n_z_Col" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,7 +503,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -547,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -559,19 +559,19 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -600,7 +600,7 @@
         <v>1.94</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>7.0000000000000001E-3</v>
@@ -615,13 +615,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
         <v>3</v>
@@ -653,7 +653,7 @@
         <v>1.94</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3">
         <v>0.01</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q3" t="s">
         <v>3</v>
@@ -706,7 +706,7 @@
         <v>1.93</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4">
         <v>4.0000000000000001E-3</v>
@@ -721,13 +721,13 @@
         <v>3.3166247903553998E-3</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="s">
         <v>3</v>
@@ -759,7 +759,7 @@
         <v>1.91</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5">
         <v>8.0000000000000002E-3</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5" t="s">
         <v>3</v>
@@ -812,7 +812,7 @@
         <v>1.84</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>-3.0000000000000001E-3</v>
@@ -827,13 +827,13 @@
         <v>4.1231056256176594E-3</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" t="s">
         <v>3</v>
@@ -865,7 +865,7 @@
         <v>4.96</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7">
         <v>8.0000000000000002E-3</v>
@@ -880,13 +880,13 @@
         <v>3.60555127546399E-3</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q7" t="s">
         <v>3</v>
@@ -918,7 +918,7 @@
         <v>4.96</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8">
         <v>2.1000000000000001E-2</v>
@@ -933,13 +933,13 @@
         <v>6.3245553203367588E-3</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q8" t="s">
         <v>3</v>
@@ -971,7 +971,7 @@
         <v>4.96</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9">
         <v>2.3E-2</v>
@@ -986,13 +986,13 @@
         <v>7.4833147735478833E-3</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" t="s">
         <v>3</v>
@@ -1024,7 +1024,7 @@
         <v>4.96</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10">
         <v>2.5000000000000001E-2</v>
@@ -1039,13 +1039,13 @@
         <v>8.0000000000000019E-3</v>
       </c>
       <c r="N10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="s">
         <v>3</v>
@@ -1077,7 +1077,7 @@
         <v>4.93</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11">
         <v>4.9000000000000002E-2</v>
@@ -1092,13 +1092,13 @@
         <v>9.9999999999999967E-3</v>
       </c>
       <c r="N11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q11" t="s">
         <v>3</v>
@@ -1130,7 +1130,7 @@
         <v>9.36</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12">
         <v>1.7000000000000001E-2</v>
@@ -1145,13 +1145,13 @@
         <v>3.60555127546399E-3</v>
       </c>
       <c r="N12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" t="s">
         <v>3</v>
@@ -1183,7 +1183,7 @@
         <v>9.34</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13">
         <v>2.9000000000000001E-2</v>
@@ -1198,13 +1198,13 @@
         <v>4.3588989435406752E-3</v>
       </c>
       <c r="N13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q13" t="s">
         <v>3</v>
@@ -1236,7 +1236,7 @@
         <v>9.32</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14">
         <v>5.0999999999999997E-2</v>
@@ -1251,13 +1251,13 @@
         <v>7.4833147735478833E-3</v>
       </c>
       <c r="N14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q14" t="s">
         <v>3</v>
@@ -1289,7 +1289,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15">
         <v>7.6999999999999999E-2</v>
@@ -1304,13 +1304,13 @@
         <v>8.0000000000000019E-3</v>
       </c>
       <c r="N15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" t="s">
         <v>3</v>
@@ -1342,7 +1342,7 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16">
         <v>6.7000000000000004E-2</v>
@@ -1357,13 +1357,13 @@
         <v>1.2609520212918489E-2</v>
       </c>
       <c r="N16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q16" t="s">
         <v>3</v>
@@ -1395,7 +1395,7 @@
         <v>26.25</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17">
         <v>2.9000000000000001E-2</v>
@@ -1410,13 +1410,13 @@
         <v>5.1961524227066352E-3</v>
       </c>
       <c r="N17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q17" t="s">
         <v>3</v>
@@ -1448,7 +1448,7 @@
         <v>26.04</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18">
         <v>2.5000000000000001E-2</v>
@@ -1463,13 +1463,13 @@
         <v>8.9442719099991613E-3</v>
       </c>
       <c r="N18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" t="s">
         <v>3</v>
@@ -1501,7 +1501,7 @@
         <v>25.96</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19">
         <v>3.5000000000000003E-2</v>
@@ -1516,13 +1516,13 @@
         <v>1.5231546211727816E-2</v>
       </c>
       <c r="N19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q19" t="s">
         <v>3</v>
@@ -1554,7 +1554,7 @@
         <v>25.81</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20">
         <v>2.5000000000000001E-2</v>
@@ -1569,13 +1569,13 @@
         <v>1.6248076809271927E-2</v>
       </c>
       <c r="N20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q20" t="s">
         <v>3</v>
@@ -1607,7 +1607,7 @@
         <v>25.68</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21">
         <v>4.8000000000000001E-2</v>
@@ -1622,13 +1622,13 @@
         <v>2.8124722220850468E-2</v>
       </c>
       <c r="N21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" t="s">
         <v>3</v>
